--- a/02_MasterWifoMannheim/99_Backup/Course116.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course116.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD32051265F592811594E08F3582DFC85" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65704D2C-C229-464E-80B9-5694A9D97C51}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MAN 649 Human Resource Recruitment and Selection</t>
-  </si>
-  <si>
-    <t>C Dontents</t>
-  </si>
-  <si>
-    <t>In this course, we will be focusing on two important aspects of human resource management: recruitment and staff selection. course will take you through the various stages of the recruitment and selection process up to the point where a candidate is selected for a specific job. The lectures are set to take place during the first half of the semester and will cover the following topics:  Determination of job requirements  Function and structure of a job description  Determination and evaluation (weighting) of selection criteria  Identification of suitable recruitment channels  Methods for attracting potential applicants - as well as their advantages and disadvantages (e.g. social networks)  Methods for assessing applicants - as well as their advantages and disadvantages (including application forms interviews, work sampling, psychometric instruments)  Development of a criteria methodology matrix  Quality management of recruitment and personnel selection uring the exercise sessions, which are scheduled for the second half of the semester, topics covered during the lectures will be further elaborated through case studies, group assignments, practical group exercises and plenary discussions.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Upon completion of this course, students will able to:  perform job analyses and develop job descriptions,  derive selection criteria from job analyses,  assess recruitment methods according to their benefits and drawbacks,  assess selection methods according to their benefits and drawbacks,  develop complex selection plans (criteria-methodology-matrix) and  identify and apply quality requirements for recruitment and personnel selection</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on the registration:Website of the chair / “Student Portal” (more information about the registration process is available here)</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 2 2</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (60 Min.): 75% Assignment: 25%</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Dr. Frank C. Danesy</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., M.A. K&amp;W, LL.M.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,137 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MAN 649 Human Resource Recruitment and Selection</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C Dontents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>In this course, we will be focusing on two important aspects of human resource management: recruitment and staff selection. course will take you through the various stages of the recruitment and selection process up to the point where a candidate is selected for a specific job. The lectures are set to take place during the first half of the semester and will cover the following topics:  Determination of job requirements  Function and structure of a job description  Determination and evaluation (weighting) of selection criteria  Identification of suitable recruitment channels  Methods for attracting potential applicants - as well as their advantages and disadvantages (e.g. social networks)  Methods for assessing applicants - as well as their advantages and disadvantages (including application forms interviews, work sampling, psychometric instruments)  Development of a criteria methodology matrix  Quality management of recruitment and personnel selection uring the exercise sessions, which are scheduled for the second half of the semester, topics covered during the lectures will be further elaborated through case studies, group assignments, practical group exercises and plenary discussions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Upon completion of this course, students will able to:  perform job analyses and develop job descriptions,  derive selection criteria from job analyses,  assess recruitment methods according to their benefits and drawbacks,  assess selection methods according to their benefits and drawbacks,  develop complex selection plans (criteria-methodology-matrix) and  identify and apply quality requirements for recruitment and personnel selection</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on the registration:Website of the chair / “Student Portal” (more information about the registration process is available here)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 2 2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (60 Min.): 75% Assignment: 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dr. Frank C. Danesy</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., M.A. K&amp;W, LL.M.</t>
+        </is>
       </c>
     </row>
   </sheetData>
